--- a/biology/Médecine/Louis_Brébant/Louis_Brébant.xlsx
+++ b/biology/Médecine/Louis_Brébant/Louis_Brébant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Br%C3%A9bant</t>
+          <t>Louis_Brébant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Louis Brébant est un médecin français, né à Balham, dans les Ardennes, le 13 janvier 1827 et mort à Reims  le 29 juin 1886. Lors de son mandant de conseiller municipal, il joua un rôle important à Reims dans le traitement des eaux usées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Louis Brébant est un médecin français, né à Balham, dans les Ardennes, le 13 janvier 1827 et mort à Reims  le 29 juin 1886. Lors de son mandant de conseiller municipal, il joua un rôle important à Reims dans le traitement des eaux usées.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Br%C3%A9bant</t>
+          <t>Louis_Brébant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jean Louis Nicolas Brébant est un médecin, né à Balham, dans les Ardennes, le 13 janvier 1827. Il épousa Marie Apolline Leroy (1835-1881) puis Marie Amélie Fournier (1845-1925).
-Pendant son mandat de conseiller municipal à Reims, il faut fut pris comme otage et déporté à Magdebourg du 16 novembre 1870 au 14 février 1871, par les Prussiens, pendant la guerre de 1870-71[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Louis Nicolas Brébant est un médecin, né à Balham, dans les Ardennes, le 13 janvier 1827. Il épousa Marie Apolline Leroy (1835-1881) puis Marie Amélie Fournier (1845-1925).
+Pendant son mandat de conseiller municipal à Reims, il faut fut pris comme otage et déporté à Magdebourg du 16 novembre 1870 au 14 février 1871, par les Prussiens, pendant la guerre de 1870-71.
 De même, pendant ce mandat, le docteur Louis Brébant  s’est beaucoup investi dans des études sur l’épuration des eaux des égouts de Reims qui ont conduit à la construction de l’égout transversal supérieur.
 Il est mort à Reims le 29 juin 1886 et repose au Cimetière du Nord de Reims.
-Politique
-Il fut : 
-Président du Conseil d’Arrondissement,
-Membre de la Chambre d’agriculture,
-conseiller municipal à Reims.</t>
+</t>
         </is>
       </c>
     </row>
@@ -531,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Br%C3%A9bant</t>
+          <t>Louis_Brébant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +556,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Essai sur le sénat par le Dr Brebant, Date de l'édition originale: 1879 Réédition 2013  (ISBN 9782012488892).
-Le charbon ou fermentation bactéridienne chez l’homme, Dr Brebant 1870.
-Solution du problème des égouts à Reims en 1877, deux conférences par M. le Dr Brébant</t>
+          <t>Politique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il fut : 
+Président du Conseil d’Arrondissement,
+Membre de la Chambre d’agriculture,
+conseiller municipal à Reims.</t>
         </is>
       </c>
     </row>
@@ -563,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Louis_Br%C3%A9bant</t>
+          <t>Louis_Brébant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,13 +595,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Essai sur le sénat par le Dr Brebant, Date de l'édition originale: 1879 Réédition 2013  (ISBN 9782012488892).
+Le charbon ou fermentation bactéridienne chez l’homme, Dr Brebant 1870.
+Solution du problème des égouts à Reims en 1877, deux conférences par M. le Dr Brébant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis_Brébant</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Br%C3%A9bant</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ancienne rue des Sept-Maisons, a été, baptisée rue Brébant en 1889 puis débaptisée à nouveau, en 1892, pour prendre le nom de rue Belly.
-Cette même année de 1892, la voie qui conduisait aux champs d’épuration a été nommée avenue Jean Louis Nicolas Brébant , en raison des longues années d’études qu’il consacra à l’épuration des eaux des égouts de Reims. En 1951, l’avenue Brébant fut étendue au chemin établi en bordure du canal entre la rue Ernest-Renan et la darse du nouveau port[3].
+Cette même année de 1892, la voie qui conduisait aux champs d’épuration a été nommée avenue Jean Louis Nicolas Brébant , en raison des longues années d’études qu’il consacra à l’épuration des eaux des égouts de Reims. En 1951, l’avenue Brébant fut étendue au chemin établi en bordure du canal entre la rue Ernest-Renan et la darse du nouveau port.
 </t>
         </is>
       </c>
